--- a/[Xiaoyu Shi] - Critique #1_ Economist bar chart (The Good Charts Matrix).xlsx
+++ b/[Xiaoyu Shi] - Critique #1_ Economist bar chart (The Good Charts Matrix).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Your name</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>Economist</t>
+  </si>
+  <si>
+    <t>As I mentioned in the critique, the chart has clear labels and correct information. Although it's hard to identify all information at the first galance, people are still able to understand the contents after reading it carefully. In all, it's a good chart but have a lot of space to improve (that's why it's under 5).</t>
+  </si>
+  <si>
+    <t>This chart didn't tell what the author want to say, because the highlights are vague and hard to distinguish. All information were presented in the graph without a clear priority. I would say it's not a good chart with regards to contextual awareness, but it's not the worst case (that's why it's higher than -5).</t>
   </si>
   <si>
     <t>Contextual awareness = what am I trying to say, to whom, and where?</t>
@@ -175,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -240,6 +246,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -369,11 +378,46 @@
             </c:numLit>
           </c:bubbleSize>
         </c:ser>
-        <c:axId val="186511173"/>
-        <c:axId val="766749421"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'The Good Charts Matrix'!$A$3</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'The Good Charts Matrix'!$B$3</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'The Good Charts Matrix'!$C$3</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+        </c:ser>
+        <c:axId val="1239169020"/>
+        <c:axId val="545132426"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="186511173"/>
+        <c:axId val="1239169020"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -443,10 +487,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="766749421"/>
+        <c:crossAx val="545132426"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="766749421"/>
+        <c:axId val="545132426"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -516,7 +560,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186511173"/>
+        <c:crossAx val="1239169020"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -562,9 +606,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="5476875"/>
     <xdr:graphicFrame>
@@ -889,32 +933,36 @@
     </row>
     <row r="3">
       <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+        <v>30</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="E6" s="23"/>
+        <v>31</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="39">
       <c r="A39" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
